--- a/Components/Excel/Stats_Concepts/movies_db_uncleaned copy.xlsx
+++ b/Components/Excel/Stats_Concepts/movies_db_uncleaned copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ded4e9b9b367109/Data_Science_Prep/Components/Excel/Stats_Concepts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FBB8F88-126C-C946-9196-60BA401BAB88}"/>
+  <xr:revisionPtr revIDLastSave="540" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F70E2A79-9201-6C46-991F-1F36523654C0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,12 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="Marvel Financials" sheetId="7" r:id="rId7"/>
     <sheet name="Mean_Median_Mode" sheetId="8" r:id="rId8"/>
+    <sheet name="STD_Varience" sheetId="9" r:id="rId9"/>
+    <sheet name="Correlation" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Correlation!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Correlation!$B$3:$B$7</definedName>
     <definedName name="Food">Table6[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -66,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="226">
   <si>
     <t>movie_id</t>
   </si>
@@ -660,6 +664,90 @@
   </si>
   <si>
     <t>Mode</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>YearlyIncome</t>
+  </si>
+  <si>
+    <t>nithish</t>
+  </si>
+  <si>
+    <t>veeral</t>
+  </si>
+  <si>
+    <t>angelina</t>
+  </si>
+  <si>
+    <t>salma</t>
+  </si>
+  <si>
+    <t>nitin</t>
+  </si>
+  <si>
+    <t>dhaval</t>
+  </si>
+  <si>
+    <t>venkat</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>Varience</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Income-Mean</t>
+  </si>
+  <si>
+    <t>(Income-Mean)^2</t>
+  </si>
+  <si>
+    <t>Juganda Income</t>
+  </si>
+  <si>
+    <t>Krance Income</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>rita</t>
+  </si>
+  <si>
+    <t>bhavin</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>abdul</t>
+  </si>
+  <si>
+    <t>kiran</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>gayathri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property Price in Rajajinagar </t>
+  </si>
+  <si>
+    <t>Sqrt</t>
+  </si>
+  <si>
+    <t>Price (INR Cr)</t>
+  </si>
+  <si>
+    <t>Correlation</t>
   </si>
 </sst>
 </file>
@@ -698,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +817,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -743,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -759,6 +859,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,6 +1026,913 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Correlation!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Correlation!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9475-B844-BDAC-F4DF936F83FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1733411440"/>
+        <c:axId val="1733413152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1733411440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1733413152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1733413152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1733411440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>439964</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58964</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97064</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB8B921-0DF2-8FE1-6F05-B6081DDD515C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4875,6 +5892,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C1CBCC-807E-ED48-B92D-32A0140585F0}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1760</v>
+      </c>
+      <c r="B3">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1943</v>
+      </c>
+      <c r="B4">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1914</v>
+      </c>
+      <c r="B5">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1618</v>
+      </c>
+      <c r="B6">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1369</v>
+      </c>
+      <c r="B7">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="3">
+        <f>CORREL(A3:A7,B3:B7)</f>
+        <v>0.86003793983378041</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF951C0-D968-407B-BACE-9EC26BF67B79}">
   <dimension ref="A1:E41"/>
@@ -7401,7 +8504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5088406-D3F0-ED4F-9073-E04326B800B6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -7446,6 +8549,382 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EFE00A-A823-574D-869E-1255A34C5DD5}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3-$B$12</f>
+        <v>7.75</v>
+      </c>
+      <c r="D3">
+        <f>C3*C3</f>
+        <v>60.0625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="3">
+        <v>99</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3-$H$12</f>
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <f>I3*I3</f>
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3">
+        <f>B4-$B$12</f>
+        <v>-1.25</v>
+      </c>
+      <c r="D4">
+        <f>C4*C4</f>
+        <v>1.5625</v>
+      </c>
+      <c r="G4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <f>H4-$H$12</f>
+        <v>-48</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="0">I4*I4</f>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="3">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3">
+        <f>B5-$B$12</f>
+        <v>2.75</v>
+      </c>
+      <c r="D5">
+        <f>C5*C5</f>
+        <v>7.5625</v>
+      </c>
+      <c r="G5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="3">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" ref="I4:I10" si="1">H5-$H$12</f>
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="3">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3">
+        <f>B6-$B$12</f>
+        <v>-2.25</v>
+      </c>
+      <c r="D6">
+        <f>C6*C6</f>
+        <v>5.0625</v>
+      </c>
+      <c r="G6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="3">
+        <v>84</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="3">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3">
+        <f>B7-$B$12</f>
+        <v>0.75</v>
+      </c>
+      <c r="D7">
+        <f>C7*C7</f>
+        <v>0.5625</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="3">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3">
+        <f>B8-$B$12</f>
+        <v>3.75</v>
+      </c>
+      <c r="D8">
+        <f>C8*C8</f>
+        <v>14.0625</v>
+      </c>
+      <c r="G8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="3">
+        <v>54</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3">
+        <f>B9-$B$12</f>
+        <v>-8.25</v>
+      </c>
+      <c r="D9">
+        <f>C9*C9</f>
+        <v>68.0625</v>
+      </c>
+      <c r="G9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="3">
+        <v>98</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="3">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3">
+        <f>B10-$B$12</f>
+        <v>-3.25</v>
+      </c>
+      <c r="D10">
+        <f>C10*C10</f>
+        <v>10.5625</v>
+      </c>
+      <c r="G10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="3">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>-34</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="3">
+        <f>AVERAGE(B3:B10)</f>
+        <v>63.25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="3">
+        <f>AVERAGE(H3:H10)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="3">
+        <f>_xlfn.VAR.P(B3:B10)</f>
+        <v>20.9375</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(D3:D10)/COUNT(D3:D10)</f>
+        <v>20.9375</v>
+      </c>
+      <c r="G13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="3">
+        <f>_xlfn.VAR.P(H3:H10)</f>
+        <v>895.75</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J3:J10)/COUNT(J3:J10)</f>
+        <v>895.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="3">
+        <f>_xlfn.STDEV.P(B3:B10)</f>
+        <v>4.5757513044307814</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SQRT(D13)</f>
+        <v>4.5757513044307814</v>
+      </c>
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="3">
+        <f>_xlfn.STDEV.P(H3:H10)</f>
+        <v>29.929082845954369</v>
+      </c>
+      <c r="J14" s="3">
+        <f>SQRT(J13)</f>
+        <v>29.929082845954369</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
